--- a/kgstats-generated/2024.11.11/stats/xlsx/voc-referats-top-by-best-speed.xlsx
+++ b/kgstats-generated/2024.11.11/stats/xlsx/voc-referats-top-by-best-speed.xlsx
@@ -101,7 +101,7 @@
     <t>ToNick</t>
   </si>
   <si>
-    <t>4 ч. 7 мин. 54 сек.</t>
+    <t>4 ч. 07 мин. 54 сек.</t>
   </si>
   <si>
     <t>8</t>
@@ -125,7 +125,7 @@
     <t>_Сайман_</t>
   </si>
   <si>
-    <t>2 ч. 26 мин. 3 сек.</t>
+    <t>2 ч. 26 мин. 03 сек.</t>
   </si>
   <si>
     <t>11</t>
@@ -161,7 +161,7 @@
     <t>Korner</t>
   </si>
   <si>
-    <t>7 ч. 43 мин. 4 сек.</t>
+    <t>7 ч. 43 мин. 04 сек.</t>
   </si>
   <si>
     <t>15</t>
@@ -188,7 +188,7 @@
     <t>EVjGeNiX</t>
   </si>
   <si>
-    <t>11 ч. 5 мин. 14 сек.</t>
+    <t>11 ч. 05 мин. 14 сек.</t>
   </si>
   <si>
     <t>18</t>
@@ -245,7 +245,7 @@
     <t>xks</t>
   </si>
   <si>
-    <t>19 ч. 27 мин. 8 сек.</t>
+    <t>19 ч. 27 мин. 08 сек.</t>
   </si>
   <si>
     <t>25</t>
@@ -263,7 +263,7 @@
     <t>Игрок3</t>
   </si>
   <si>
-    <t>5 ч. 2 мин. 17 сек.</t>
+    <t>5 ч. 02 мин. 17 сек.</t>
   </si>
   <si>
     <t>27–28</t>
@@ -287,7 +287,7 @@
     <t>madinko</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 9 сек.</t>
+    <t>2 ч. 02 мин. 09 сек.</t>
   </si>
   <si>
     <t>30–31</t>
@@ -302,7 +302,7 @@
     <t>Лень</t>
   </si>
   <si>
-    <t>8 ч. 50 мин. 5 сек.</t>
+    <t>8 ч. 50 мин. 05 сек.</t>
   </si>
   <si>
     <t>32–33</t>
@@ -311,13 +311,13 @@
     <t>sneg_jr</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 33 сек.</t>
+    <t>2 ч. 02 мин. 33 сек.</t>
   </si>
   <si>
     <t>Corleone99</t>
   </si>
   <si>
-    <t>3 ч. 15 мин. 2 сек.</t>
+    <t>3 ч. 15 мин. 02 сек.</t>
   </si>
   <si>
     <t>34</t>
@@ -326,7 +326,7 @@
     <t>Eremite</t>
   </si>
   <si>
-    <t>17 ч. 3 мин. 24 сек.</t>
+    <t>17 ч. 03 мин. 24 сек.</t>
   </si>
   <si>
     <t>35</t>
@@ -344,7 +344,7 @@
     <t>Гектор</t>
   </si>
   <si>
-    <t>3 ч. 29 мин. 2 сек.</t>
+    <t>3 ч. 29 мин. 02 сек.</t>
   </si>
   <si>
     <t>37</t>
@@ -362,7 +362,7 @@
     <t>Софья_Хуланова</t>
   </si>
   <si>
-    <t>6 ч. 0 мин. 39 сек.</t>
+    <t>6 ч. 00 мин. 39 сек.</t>
   </si>
   <si>
     <t>39</t>
@@ -473,7 +473,7 @@
     <t>KOSTYA410</t>
   </si>
   <si>
-    <t>5 ч. 56 мин. 1 сек.</t>
+    <t>5 ч. 56 мин. 01 сек.</t>
   </si>
   <si>
     <t>52–53</t>
@@ -488,7 +488,7 @@
     <t>proximo39</t>
   </si>
   <si>
-    <t>10 ч. 8 мин. 38 сек.</t>
+    <t>10 ч. 08 мин. 38 сек.</t>
   </si>
   <si>
     <t>54–56</t>
@@ -497,7 +497,7 @@
     <t>Леоня</t>
   </si>
   <si>
-    <t>1 ч. 50 мин. 7 сек.</t>
+    <t>1 ч. 50 мин. 07 сек.</t>
   </si>
   <si>
     <t>oyasumi</t>
@@ -548,7 +548,7 @@
     <t>flethentel</t>
   </si>
   <si>
-    <t>6 ч. 27 мин. 4 сек.</t>
+    <t>6 ч. 27 мин. 04 сек.</t>
   </si>
   <si>
     <t>62</t>
@@ -557,7 +557,7 @@
     <t>-FORCE-</t>
   </si>
   <si>
-    <t>5 ч. 1 мин. 47 сек.</t>
+    <t>5 ч. 01 мин. 47 сек.</t>
   </si>
   <si>
     <t>63</t>
@@ -644,7 +644,7 @@
     <t>Viktor_Animal</t>
   </si>
   <si>
-    <t>3 ч. 10 мин. 5 сек.</t>
+    <t>3 ч. 10 мин. 05 сек.</t>
   </si>
   <si>
     <t>Muwka_C_CeBePa</t>
@@ -674,7 +674,7 @@
     <t>Sergey_Ch</t>
   </si>
   <si>
-    <t>4 ч. 30 мин. 5 сек.</t>
+    <t>4 ч. 30 мин. 05 сек.</t>
   </si>
   <si>
     <t>78–79</t>
@@ -689,7 +689,7 @@
     <t>Galaad</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 33 сек.</t>
+    <t>2 ч. 07 мин. 33 сек.</t>
   </si>
   <si>
     <t>80</t>
@@ -707,7 +707,7 @@
     <t>Tahion</t>
   </si>
   <si>
-    <t>1 ч. 23 мин. 1 сек.</t>
+    <t>1 ч. 23 мин. 01 сек.</t>
   </si>
   <si>
     <t>82</t>
@@ -761,7 +761,7 @@
     <t>Supersonic</t>
   </si>
   <si>
-    <t>20 ч. 7 мин. 45 сек.</t>
+    <t>20 ч. 07 мин. 45 сек.</t>
   </si>
   <si>
     <t>89–90</t>
@@ -785,7 +785,7 @@
     <t>dsdt</t>
   </si>
   <si>
-    <t>5 ч. 9 мин. 48 сек.</t>
+    <t>5 ч. 09 мин. 48 сек.</t>
   </si>
   <si>
     <t>92</t>
@@ -794,7 +794,7 @@
     <t>Bobreogen</t>
   </si>
   <si>
-    <t>1 ч. 34 мин. 8 сек.</t>
+    <t>1 ч. 34 мин. 08 сек.</t>
   </si>
   <si>
     <t>93</t>
@@ -857,7 +857,7 @@
     <t>InsydeR</t>
   </si>
   <si>
-    <t>4 ч. 51 мин. 5 сек.</t>
+    <t>4 ч. 51 мин. 05 сек.</t>
   </si>
   <si>
     <t>101–102</t>
@@ -917,7 +917,7 @@
     <t>Бэтмен</t>
   </si>
   <si>
-    <t>7 ч. 33 мин. 7 сек.</t>
+    <t>7 ч. 33 мин. 07 сек.</t>
   </si>
   <si>
     <t>109</t>
@@ -941,7 +941,7 @@
     <t>_600_</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 22 сек.</t>
+    <t>3 ч. 04 мин. 22 сек.</t>
   </si>
   <si>
     <t>112–113</t>
@@ -950,13 +950,13 @@
     <t>машина</t>
   </si>
   <si>
-    <t>2 ч. 23 мин. 8 сек.</t>
+    <t>2 ч. 23 мин. 08 сек.</t>
   </si>
   <si>
     <t>Аромат</t>
   </si>
   <si>
-    <t>18 ч. 0 мин. 21 сек.</t>
+    <t>18 ч. 00 мин. 21 сек.</t>
   </si>
   <si>
     <t>114</t>
@@ -974,13 +974,13 @@
     <t>Zippin</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 43 сек.</t>
+    <t>2 ч. 02 мин. 43 сек.</t>
   </si>
   <si>
     <t>Natalochka</t>
   </si>
   <si>
-    <t>3 ч. 26 мин. 4 сек.</t>
+    <t>3 ч. 26 мин. 04 сек.</t>
   </si>
   <si>
     <t>мимими</t>
@@ -995,7 +995,7 @@
     <t>alanen</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 39 сек.</t>
+    <t>2 ч. 02 мин. 39 сек.</t>
   </si>
   <si>
     <t>119</t>
@@ -1004,7 +1004,7 @@
     <t>Clara_Oswald</t>
   </si>
   <si>
-    <t>13 ч. 58 мин. 2 сек.</t>
+    <t>13 ч. 58 мин. 02 сек.</t>
   </si>
   <si>
     <t>120–121</t>
@@ -1043,7 +1043,7 @@
     <t>ТРЕКК</t>
   </si>
   <si>
-    <t>5 ч. 2 мин. 15 сек.</t>
+    <t>5 ч. 02 мин. 15 сек.</t>
   </si>
   <si>
     <t>125</t>
@@ -1061,13 +1061,13 @@
     <t>SEFER</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 19 сек.</t>
+    <t>2 ч. 00 мин. 19 сек.</t>
   </si>
   <si>
     <t>xcislav</t>
   </si>
   <si>
-    <t>6 ч. 0 мин. 57 сек.</t>
+    <t>6 ч. 00 мин. 57 сек.</t>
   </si>
   <si>
     <t>128–129</t>
@@ -1097,7 +1097,7 @@
     <t>Ллисса</t>
   </si>
   <si>
-    <t>4 ч. 21 мин. 8 сек.</t>
+    <t>4 ч. 21 мин. 08 сек.</t>
   </si>
   <si>
     <t>132–134</t>
@@ -1136,7 +1136,7 @@
     <t>Chedi</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 41 сек.</t>
+    <t>2 ч. 03 мин. 41 сек.</t>
   </si>
   <si>
     <t>137</t>
@@ -1154,7 +1154,7 @@
     <t>_sorriso_</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 35 сек.</t>
+    <t>2 ч. 03 мин. 35 сек.</t>
   </si>
   <si>
     <t>Abu_Abu</t>
@@ -1175,7 +1175,7 @@
     <t>Рустамко</t>
   </si>
   <si>
-    <t>3 ч. 29 мин. 4 сек.</t>
+    <t>3 ч. 29 мин. 04 сек.</t>
   </si>
   <si>
     <t>Insane_Grinder</t>
@@ -1190,7 +1190,7 @@
     <t>Holly_Maggie</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 58 сек.</t>
+    <t>2 ч. 02 мин. 58 сек.</t>
   </si>
   <si>
     <t>144</t>
@@ -1235,7 +1235,7 @@
     <t>Leshiy239</t>
   </si>
   <si>
-    <t>7 ч. 39 мин. 7 сек.</t>
+    <t>7 ч. 39 мин. 07 сек.</t>
   </si>
   <si>
     <t>Reset82</t>
@@ -1283,13 +1283,13 @@
     <t>NeviD</t>
   </si>
   <si>
-    <t>2 ч. 11 мин. 2 сек.</t>
+    <t>2 ч. 11 мин. 02 сек.</t>
   </si>
   <si>
     <t>ДядяСаша</t>
   </si>
   <si>
-    <t>4 ч. 6 мин. 46 сек.</t>
+    <t>4 ч. 06 мин. 46 сек.</t>
   </si>
   <si>
     <t>157</t>
@@ -1307,7 +1307,7 @@
     <t>Кот_Черныш</t>
   </si>
   <si>
-    <t>14 ч. 12 мин. 2 сек.</t>
+    <t>14 ч. 12 мин. 02 сек.</t>
   </si>
   <si>
     <t>159–160</t>
@@ -1376,7 +1376,7 @@
     <t>JPM</t>
   </si>
   <si>
-    <t>1 ч. 49 мин. 6 сек.</t>
+    <t>1 ч. 49 мин. 06 сек.</t>
   </si>
   <si>
     <t>KuzYur</t>
@@ -1406,7 +1406,7 @@
     <t>fishca</t>
   </si>
   <si>
-    <t>9 ч. 9 мин. 7 сек.</t>
+    <t>9 ч. 09 мин. 07 сек.</t>
   </si>
   <si>
     <t>Alsim</t>
@@ -1475,7 +1475,7 @@
     <t>Dobby_</t>
   </si>
   <si>
-    <t>21 ч. 3 мин. 58 сек.</t>
+    <t>21 ч. 03 мин. 58 сек.</t>
   </si>
   <si>
     <t>182–185</t>
@@ -1490,13 +1490,13 @@
     <t>Wassja</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 27 сек.</t>
+    <t>3 ч. 08 мин. 27 сек.</t>
   </si>
   <si>
     <t>АкунаМатата</t>
   </si>
   <si>
-    <t>3 ч. 49 мин. 5 сек.</t>
+    <t>3 ч. 49 мин. 05 сек.</t>
   </si>
   <si>
     <t>UPO</t>
@@ -1511,7 +1511,7 @@
     <t>doklls</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 43 сек.</t>
+    <t>2 ч. 03 мин. 43 сек.</t>
   </si>
   <si>
     <t>saben_askhat</t>
@@ -1541,7 +1541,7 @@
     <t>Мирный</t>
   </si>
   <si>
-    <t>7 ч. 57 мин. 0 сек.</t>
+    <t>7 ч. 57 мин. 00 сек.</t>
   </si>
   <si>
     <t>191–195</t>
@@ -1568,7 +1568,7 @@
     <t>Ilya666</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 9 сек.</t>
+    <t>4 ч. 05 мин. 09 сек.</t>
   </si>
   <si>
     <t>fedyagor</t>
@@ -1589,7 +1589,7 @@
     <t>blurr</t>
   </si>
   <si>
-    <t>9 ч. 45 мин. 4 сек.</t>
+    <t>9 ч. 45 мин. 04 сек.</t>
   </si>
   <si>
     <t>198–199</t>
@@ -1598,7 +1598,7 @@
     <t>Traumstaub</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 50 сек.</t>
+    <t>2 ч. 01 мин. 50 сек.</t>
   </si>
   <si>
     <t>Espera</t>
@@ -1622,7 +1622,7 @@
     <t>Командир</t>
   </si>
   <si>
-    <t>2 ч. 16 мин. 5 сек.</t>
+    <t>2 ч. 16 мин. 05 сек.</t>
   </si>
   <si>
     <t>gornostay</t>
@@ -1634,7 +1634,7 @@
     <t>Fox_creative</t>
   </si>
   <si>
-    <t>4 ч. 0 мин. 50 сек.</t>
+    <t>4 ч. 00 мин. 50 сек.</t>
   </si>
   <si>
     <t>204</t>
@@ -1643,7 +1643,7 @@
     <t>Клавишник</t>
   </si>
   <si>
-    <t>2 ч. 46 мин. 7 сек.</t>
+    <t>2 ч. 46 мин. 07 сек.</t>
   </si>
   <si>
     <t>205–210</t>
@@ -1652,7 +1652,7 @@
     <t>Валацуга</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 51 сек.</t>
+    <t>2 ч. 03 мин. 51 сек.</t>
   </si>
   <si>
     <t>AlexSIBER</t>
@@ -1676,7 +1676,7 @@
     <t>Luxmaster</t>
   </si>
   <si>
-    <t>6 ч. 47 мин. 8 сек.</t>
+    <t>6 ч. 47 мин. 08 сек.</t>
   </si>
   <si>
     <t>sharpei_j</t>
@@ -1691,13 +1691,13 @@
     <t>dogs_life</t>
   </si>
   <si>
-    <t>1 ч. 45 мин. 9 сек.</t>
+    <t>1 ч. 45 мин. 09 сек.</t>
   </si>
   <si>
     <t>azukun</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 8 сек.</t>
+    <t>2 ч. 00 мин. 08 сек.</t>
   </si>
   <si>
     <t>моном</t>
@@ -1727,7 +1727,7 @@
     <t>Just_so_Lex</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 23 сек.</t>
+    <t>2 ч. 07 мин. 23 сек.</t>
   </si>
   <si>
     <t>217</t>
@@ -1745,7 +1745,7 @@
     <t>Annabeth</t>
   </si>
   <si>
-    <t>3 ч. 10 мин. 6 сек.</t>
+    <t>3 ч. 10 мин. 06 сек.</t>
   </si>
   <si>
     <t>219</t>
@@ -1787,13 +1787,13 @@
     <t>stag_</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 3 сек.</t>
+    <t>2 ч. 07 мин. 03 сек.</t>
   </si>
   <si>
     <t>_ulanochka</t>
   </si>
   <si>
-    <t>4 ч. 0 мин. 59 сек.</t>
+    <t>4 ч. 00 мин. 59 сек.</t>
   </si>
   <si>
     <t>225</t>
@@ -1802,7 +1802,7 @@
     <t>bolgarinpavel</t>
   </si>
   <si>
-    <t>3 ч. 34 мин. 0 сек.</t>
+    <t>3 ч. 34 мин. 00 сек.</t>
   </si>
   <si>
     <t>226–227</t>
@@ -1811,13 +1811,13 @@
     <t>Slavik89</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 42 сек.</t>
+    <t>2 ч. 07 мин. 42 сек.</t>
   </si>
   <si>
     <t>тощий_кабан</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 45 сек.</t>
+    <t>3 ч. 05 мин. 45 сек.</t>
   </si>
   <si>
     <t>228</t>
@@ -1835,7 +1835,7 @@
     <t>NineFingers</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 20 сек.</t>
+    <t>2 ч. 06 мин. 20 сек.</t>
   </si>
   <si>
     <t>230–232</t>
@@ -1844,13 +1844,13 @@
     <t>Старец</t>
   </si>
   <si>
-    <t>2 ч. 47 мин. 1 сек.</t>
+    <t>2 ч. 47 мин. 01 сек.</t>
   </si>
   <si>
     <t>HellBoy33</t>
   </si>
   <si>
-    <t>5 ч. 24 мин. 3 сек.</t>
+    <t>5 ч. 24 мин. 03 сек.</t>
   </si>
   <si>
     <t>shicotus</t>
@@ -1865,7 +1865,7 @@
     <t>_Жемчужинка_</t>
   </si>
   <si>
-    <t>4 ч. 2 мин. 37 сек.</t>
+    <t>4 ч. 02 мин. 37 сек.</t>
   </si>
   <si>
     <t>234</t>
@@ -1883,7 +1883,7 @@
     <t>Френдли</t>
   </si>
   <si>
-    <t>2 ч. 38 мин. 3 сек.</t>
+    <t>2 ч. 38 мин. 03 сек.</t>
   </si>
   <si>
     <t>_NoMaD_</t>
@@ -1952,7 +1952,7 @@
     <t>inexpert</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 51 сек.</t>
+    <t>2 ч. 07 мин. 51 сек.</t>
   </si>
   <si>
     <t>246–247</t>
@@ -1967,7 +1967,7 @@
     <t>SamArKin</t>
   </si>
   <si>
-    <t>11 ч. 12 мин. 4 сек.</t>
+    <t>11 ч. 12 мин. 04 сек.</t>
   </si>
   <si>
     <t>248</t>
@@ -2006,7 +2006,7 @@
     <t>MedLya112</t>
   </si>
   <si>
-    <t>4 ч. 15 мин. 0 сек.</t>
+    <t>4 ч. 15 мин. 00 сек.</t>
   </si>
   <si>
     <t>253–254</t>
@@ -2015,13 +2015,13 @@
     <t>GalaGale</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 28 сек.</t>
+    <t>2 ч. 01 мин. 28 сек.</t>
   </si>
   <si>
     <t>NDancer</t>
   </si>
   <si>
-    <t>2 ч. 42 мин. 9 сек.</t>
+    <t>2 ч. 42 мин. 09 сек.</t>
   </si>
   <si>
     <t>255–256</t>
@@ -2045,7 +2045,7 @@
     <t>Vovaldo</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 23 сек.</t>
+    <t>4 ч. 05 мин. 23 сек.</t>
   </si>
   <si>
     <t>258–259</t>
@@ -2060,7 +2060,7 @@
     <t>El_Mago</t>
   </si>
   <si>
-    <t>6 ч. 7 мин. 21 сек.</t>
+    <t>6 ч. 07 мин. 21 сек.</t>
   </si>
   <si>
     <t>260</t>
@@ -2069,7 +2069,7 @@
     <t>Атата</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 42 сек.</t>
+    <t>3 ч. 07 мин. 42 сек.</t>
   </si>
   <si>
     <t>261</t>
@@ -2135,7 +2135,7 @@
     <t>Radius</t>
   </si>
   <si>
-    <t>7 ч. 6 мин. 48 сек.</t>
+    <t>7 ч. 06 мин. 48 сек.</t>
   </si>
   <si>
     <t>269–272</t>
@@ -2150,7 +2150,7 @@
     <t>YuranTM</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 16 сек.</t>
+    <t>3 ч. 09 мин. 16 сек.</t>
   </si>
   <si>
     <t>clair</t>
@@ -2207,7 +2207,7 @@
     <t>ofirinka</t>
   </si>
   <si>
-    <t>16 ч. 51 мин. 7 сек.</t>
+    <t>16 ч. 51 мин. 07 сек.</t>
   </si>
   <si>
     <t>279–281</t>
@@ -2222,13 +2222,13 @@
     <t>amt</t>
   </si>
   <si>
-    <t>2 ч. 59 мин. 5 сек.</t>
+    <t>2 ч. 59 мин. 05 сек.</t>
   </si>
   <si>
     <t>ANchY2J</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 48 сек.</t>
+    <t>3 ч. 06 мин. 48 сек.</t>
   </si>
   <si>
     <t>282–283</t>
@@ -2237,7 +2237,7 @@
     <t>чебупеля</t>
   </si>
   <si>
-    <t>3 ч. 3 мин. 50 сек.</t>
+    <t>3 ч. 03 мин. 50 сек.</t>
   </si>
   <si>
     <t>ВалераУлитка</t>
@@ -2261,7 +2261,7 @@
     <t>Evariste</t>
   </si>
   <si>
-    <t>6 ч. 8 мин. 25 сек.</t>
+    <t>6 ч. 08 мин. 25 сек.</t>
   </si>
   <si>
     <t>smol67</t>
@@ -2345,7 +2345,7 @@
     <t>Mask2017</t>
   </si>
   <si>
-    <t>4 ч. 56 мин. 5 сек.</t>
+    <t>4 ч. 56 мин. 05 сек.</t>
   </si>
   <si>
     <t>Zephir</t>
@@ -2369,7 +2369,7 @@
     <t>клавоинка</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 43 сек.</t>
+    <t>2 ч. 08 мин. 43 сек.</t>
   </si>
   <si>
     <t>300–302</t>
@@ -2378,7 +2378,7 @@
     <t>Соточка</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 17 сек.</t>
+    <t>3 ч. 06 мин. 17 сек.</t>
   </si>
   <si>
     <t>exploration</t>
@@ -2390,7 +2390,7 @@
     <t>emercomisha</t>
   </si>
   <si>
-    <t>6 ч. 57 мин. 4 сек.</t>
+    <t>6 ч. 57 мин. 04 сек.</t>
   </si>
   <si>
     <t>303</t>
@@ -2408,7 +2408,7 @@
     <t>Vi1993</t>
   </si>
   <si>
-    <t>11 ч. 39 мин. 5 сек.</t>
+    <t>11 ч. 39 мин. 05 сек.</t>
   </si>
   <si>
     <t>305</t>
@@ -2426,7 +2426,7 @@
     <t>Sky-net</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 17 сек.</t>
+    <t>4 ч. 05 мин. 17 сек.</t>
   </si>
   <si>
     <t>307–309</t>
@@ -2462,7 +2462,7 @@
     <t>tinto</t>
   </si>
   <si>
-    <t>2 ч. 56 мин. 8 сек.</t>
+    <t>2 ч. 56 мин. 08 сек.</t>
   </si>
   <si>
     <t>tararamspb</t>
@@ -2492,7 +2492,7 @@
     <t>Сима44</t>
   </si>
   <si>
-    <t>21 ч. 8 мин. 50 сек.</t>
+    <t>21 ч. 08 мин. 50 сек.</t>
   </si>
   <si>
     <t>316</t>
@@ -2510,7 +2510,7 @@
     <t>Vi2GaN</t>
   </si>
   <si>
-    <t>3 ч. 49 мин. 6 сек.</t>
+    <t>3 ч. 49 мин. 06 сек.</t>
   </si>
   <si>
     <t>318</t>
@@ -2519,7 +2519,7 @@
     <t>ckandy</t>
   </si>
   <si>
-    <t>2 ч. 55 мин. 1 сек.</t>
+    <t>2 ч. 55 мин. 01 сек.</t>
   </si>
   <si>
     <t>319</t>
@@ -2564,7 +2564,7 @@
     <t>adocs</t>
   </si>
   <si>
-    <t>2 ч. 12 мин. 0 сек.</t>
+    <t>2 ч. 12 мин. 00 сек.</t>
   </si>
   <si>
     <t>puton</t>
@@ -2585,7 +2585,7 @@
     <t>daktule</t>
   </si>
   <si>
-    <t>5 ч. 59 мин. 2 сек.</t>
+    <t>5 ч. 59 мин. 02 сек.</t>
   </si>
   <si>
     <t>327–329</t>
@@ -2615,7 +2615,7 @@
     <t>Ann_13</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 14 сек.</t>
+    <t>3 ч. 01 мин. 14 сек.</t>
   </si>
   <si>
     <t>Engi</t>
@@ -2645,7 +2645,7 @@
     <t>Zettabyte</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 20 сек.</t>
+    <t>2 ч. 05 мин. 20 сек.</t>
   </si>
   <si>
     <t>335</t>
@@ -2672,7 +2672,7 @@
     <t>VQV</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 38 сек.</t>
+    <t>3 ч. 01 мин. 38 сек.</t>
   </si>
   <si>
     <t>deafbeard</t>
@@ -2711,13 +2711,13 @@
     <t>Romario100</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 37 сек.</t>
+    <t>2 ч. 09 мин. 37 сек.</t>
   </si>
   <si>
     <t>s1c</t>
   </si>
   <si>
-    <t>8 ч. 6 мин. 31 сек.</t>
+    <t>8 ч. 06 мин. 31 сек.</t>
   </si>
   <si>
     <t>344–345</t>
@@ -2729,7 +2729,7 @@
     <t>Speed_King</t>
   </si>
   <si>
-    <t>10 ч. 9 мин. 12 сек.</t>
+    <t>10 ч. 09 мин. 12 сек.</t>
   </si>
   <si>
     <t>346–348</t>
@@ -2738,7 +2738,7 @@
     <t>forward-ok</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 35 сек.</t>
+    <t>3 ч. 06 мин. 35 сек.</t>
   </si>
   <si>
     <t>KalinaMalina</t>
@@ -2759,7 +2759,7 @@
     <t>Xupypr_y</t>
   </si>
   <si>
-    <t>6 ч. 6 мин. 34 сек.</t>
+    <t>6 ч. 06 мин. 34 сек.</t>
   </si>
   <si>
     <t>350</t>
@@ -2810,7 +2810,7 @@
     <t>pa26</t>
   </si>
   <si>
-    <t>4 ч. 6 мин. 55 сек.</t>
+    <t>4 ч. 06 мин. 55 сек.</t>
   </si>
   <si>
     <t>356</t>
@@ -2849,7 +2849,7 @@
     <t>hangling</t>
   </si>
   <si>
-    <t>8 ч. 56 мин. 6 сек.</t>
+    <t>8 ч. 56 мин. 06 сек.</t>
   </si>
   <si>
     <t>361</t>
@@ -2882,7 +2882,7 @@
     <t>Nuria</t>
   </si>
   <si>
-    <t>5 ч. 57 мин. 5 сек.</t>
+    <t>5 ч. 57 мин. 05 сек.</t>
   </si>
   <si>
     <t>365</t>
@@ -2909,7 +2909,7 @@
     <t>ikim_online</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 33 сек.</t>
+    <t>3 ч. 01 мин. 33 сек.</t>
   </si>
   <si>
     <t>forbatyr</t>
@@ -2936,7 +2936,7 @@
     <t>Yarook</t>
   </si>
   <si>
-    <t>8 ч. 26 мин. 1 сек.</t>
+    <t>8 ч. 26 мин. 01 сек.</t>
   </si>
   <si>
     <t>372</t>
@@ -2969,7 +2969,7 @@
     <t>Fleabag</t>
   </si>
   <si>
-    <t>9 ч. 14 мин. 7 сек.</t>
+    <t>9 ч. 14 мин. 07 сек.</t>
   </si>
   <si>
     <t>376–377</t>
@@ -2984,7 +2984,7 @@
     <t>glt198</t>
   </si>
   <si>
-    <t>5 ч. 0 мин. 31 сек.</t>
+    <t>5 ч. 00 мин. 31 сек.</t>
   </si>
   <si>
     <t>378</t>
@@ -2993,7 +2993,7 @@
     <t>Геос</t>
   </si>
   <si>
-    <t>4 ч. 4 мин. 48 сек.</t>
+    <t>4 ч. 04 мин. 48 сек.</t>
   </si>
   <si>
     <t>379</t>
@@ -3002,7 +3002,7 @@
     <t>ufcntkkj</t>
   </si>
   <si>
-    <t>7 ч. 34 мин. 2 сек.</t>
+    <t>7 ч. 34 мин. 02 сек.</t>
   </si>
   <si>
     <t>380</t>
@@ -3020,7 +3020,7 @@
     <t>zeliks</t>
   </si>
   <si>
-    <t>10 ч. 5 мин. 17 сек.</t>
+    <t>10 ч. 05 мин. 17 сек.</t>
   </si>
   <si>
     <t>382</t>
@@ -3029,7 +3029,7 @@
     <t>Креслоноцец</t>
   </si>
   <si>
-    <t>10 ч. 27 мин. 4 сек.</t>
+    <t>10 ч. 27 мин. 04 сек.</t>
   </si>
   <si>
     <t>383</t>
@@ -3047,7 +3047,7 @@
     <t>lek30</t>
   </si>
   <si>
-    <t>5 ч. 2 мин. 33 сек.</t>
+    <t>5 ч. 02 мин. 33 сек.</t>
   </si>
   <si>
     <t>385–386</t>
@@ -3071,7 +3071,7 @@
     <t>Шмакодявка</t>
   </si>
   <si>
-    <t>6 ч. 9 мин. 45 сек.</t>
+    <t>6 ч. 09 мин. 45 сек.</t>
   </si>
   <si>
     <t>smith-</t>
@@ -3086,7 +3086,7 @@
     <t>mairabek</t>
   </si>
   <si>
-    <t>3 ч. 13 мин. 7 сек.</t>
+    <t>3 ч. 13 мин. 07 сек.</t>
   </si>
   <si>
     <t>a_inc</t>
@@ -3110,7 +3110,7 @@
     <t>Графит</t>
   </si>
   <si>
-    <t>6 ч. 29 мин. 0 сек.</t>
+    <t>6 ч. 29 мин. 00 сек.</t>
   </si>
   <si>
     <t>393</t>
@@ -3152,7 +3152,7 @@
     <t>XR7</t>
   </si>
   <si>
-    <t>6 ч. 31 мин. 0 сек.</t>
+    <t>6 ч. 31 мин. 00 сек.</t>
   </si>
   <si>
     <t>naty_apwer</t>
@@ -3167,7 +3167,7 @@
     <t>svetophor</t>
   </si>
   <si>
-    <t>3 ч. 49 мин. 8 сек.</t>
+    <t>3 ч. 49 мин. 08 сек.</t>
   </si>
   <si>
     <t>400–401</t>
@@ -3191,7 +3191,7 @@
     <t>Гонибалл</t>
   </si>
   <si>
-    <t>4 ч. 34 мин. 1 сек.</t>
+    <t>4 ч. 34 мин. 01 сек.</t>
   </si>
   <si>
     <t>403</t>
@@ -3209,7 +3209,7 @@
     <t>arthan</t>
   </si>
   <si>
-    <t>7 ч. 2 мин. 32 сек.</t>
+    <t>7 ч. 02 мин. 32 сек.</t>
   </si>
   <si>
     <t>405</t>
@@ -3218,7 +3218,7 @@
     <t>Биолог467</t>
   </si>
   <si>
-    <t>3 ч. 56 мин. 8 сек.</t>
+    <t>3 ч. 56 мин. 08 сек.</t>
   </si>
   <si>
     <t>406</t>
@@ -3227,7 +3227,7 @@
     <t>Savitri</t>
   </si>
   <si>
-    <t>10 ч. 1 мин. 46 сек.</t>
+    <t>10 ч. 01 мин. 46 сек.</t>
   </si>
   <si>
     <t>407</t>
@@ -3269,7 +3269,7 @@
     <t>egor_2000</t>
   </si>
   <si>
-    <t>26 ч. 9 мин. 10 сек.</t>
+    <t>26 ч. 09 мин. 10 сек.</t>
   </si>
   <si>
     <t>412</t>
@@ -3278,7 +3278,7 @@
     <t>Rogzard</t>
   </si>
   <si>
-    <t>5 ч. 1 мин. 13 сек.</t>
+    <t>5 ч. 01 мин. 13 сек.</t>
   </si>
   <si>
     <t>413</t>
@@ -3314,7 +3314,7 @@
     <t>nikmaron</t>
   </si>
   <si>
-    <t>4 ч. 43 мин. 5 сек.</t>
+    <t>4 ч. 43 мин. 05 сек.</t>
   </si>
   <si>
     <t>417</t>
@@ -3341,7 +3341,7 @@
     <t>zdanhik</t>
   </si>
   <si>
-    <t>5 ч. 6 мин. 13 сек.</t>
+    <t>5 ч. 06 мин. 13 сек.</t>
   </si>
   <si>
     <t>420</t>
@@ -3350,7 +3350,7 @@
     <t>Nadusha12</t>
   </si>
   <si>
-    <t>8 ч. 5 мин. 53 сек.</t>
+    <t>8 ч. 05 мин. 53 сек.</t>
   </si>
   <si>
     <t>421</t>
